--- a/webrouting/Program Documents/Shipments - SAMPLE.xlsx
+++ b/webrouting/Program Documents/Shipments - SAMPLE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dakot\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6531BDD-B6C9-42AF-A9AC-D9134B773BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9983B781-87D1-417D-ACA5-1E9002A7270A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5400" yWindow="7395" windowWidth="29010" windowHeight="12975" xr2:uid="{ED5511EA-94C5-42EE-8373-FCB2E33C0E3A}"/>
+    <workbookView xWindow="5445" yWindow="3855" windowWidth="27045" windowHeight="15195" xr2:uid="{ED5511EA-94C5-42EE-8373-FCB2E33C0E3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
   <si>
     <t>Client Mode</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Commodity Pieces</t>
   </si>
   <si>
-    <t>Commodity Paid Weigh</t>
-  </si>
-  <si>
     <t>Shipper City</t>
   </si>
   <si>
@@ -62,12 +59,6 @@
     <t>Shipper Zip</t>
   </si>
   <si>
-    <t>Latitude</t>
-  </si>
-  <si>
-    <t>Longitude</t>
-  </si>
-  <si>
     <t>Consignee City</t>
   </si>
   <si>
@@ -77,55 +68,136 @@
     <t>Consignee Zip</t>
   </si>
   <si>
-    <t>Latitude2</t>
-  </si>
-  <si>
-    <t>Longitude3</t>
-  </si>
-  <si>
-    <t>STBLLC</t>
-  </si>
-  <si>
     <t>FTL</t>
   </si>
   <si>
-    <t>PITTSBURGH</t>
-  </si>
-  <si>
     <t>PA</t>
   </si>
   <si>
-    <t>BUFFALO</t>
-  </si>
-  <si>
     <t>NY</t>
   </si>
   <si>
     <t>LTL</t>
   </si>
   <si>
-    <t>PHOENIX</t>
-  </si>
-  <si>
     <t>AZ</t>
   </si>
   <si>
-    <t>CHEYENNE</t>
-  </si>
-  <si>
-    <t>WY</t>
-  </si>
-  <si>
     <t>Client Name</t>
+  </si>
+  <si>
+    <t>Commodity Paid Weight</t>
+  </si>
+  <si>
+    <t>Walmart</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>CVS</t>
+  </si>
+  <si>
+    <t>UnitedHealth Group</t>
+  </si>
+  <si>
+    <t>Exxon Mobil</t>
+  </si>
+  <si>
+    <t>Berkshire Hathaway</t>
+  </si>
+  <si>
+    <t>McKesson</t>
+  </si>
+  <si>
+    <t>Los Angeles</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>Houston</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>Phoenix</t>
+  </si>
+  <si>
+    <t>Philadelphia</t>
+  </si>
+  <si>
+    <t>San Antonio</t>
+  </si>
+  <si>
+    <t>San Diego</t>
+  </si>
+  <si>
+    <t>ScrubDaddy</t>
+  </si>
+  <si>
+    <t>San Jose</t>
+  </si>
+  <si>
+    <t>Dallas</t>
+  </si>
+  <si>
+    <t>Austin</t>
+  </si>
+  <si>
+    <t>Jacksonville</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>San Francisco</t>
+  </si>
+  <si>
+    <t>Indianapolis</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>Columbus</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>Forth Worth</t>
+  </si>
+  <si>
+    <t>Charlotte</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>Seattle</t>
+  </si>
+  <si>
+    <t>WA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0000000000"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -218,7 +290,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -227,10 +299,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -240,10 +308,6 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -252,9 +316,6 @@
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -275,15 +336,12 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="16">
     <dxf>
       <font>
         <b val="0"/>
@@ -301,41 +359,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color rgb="FFE2E2E2"/>
-        </left>
-        <right style="medium">
-          <color rgb="FFE2E2E2"/>
-        </right>
-        <top style="medium">
-          <color rgb="FFE2E2E2"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FFE2E2E2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
@@ -402,107 +425,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color rgb="FFE2E2E2"/>
-        </left>
-        <right style="medium">
-          <color rgb="FFE2E2E2"/>
-        </right>
-        <top style="medium">
-          <color rgb="FFE2E2E2"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FFE2E2E2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color rgb="FFE2E2E2"/>
-        </left>
-        <right style="medium">
-          <color rgb="FFE2E2E2"/>
-        </right>
-        <top style="medium">
-          <color rgb="FFE2E2E2"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FFE2E2E2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color rgb="FFE2E2E2"/>
-        </left>
-        <right style="medium">
-          <color rgb="FFE2E2E2"/>
-        </right>
-        <top style="medium">
-          <color rgb="FFE2E2E2"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FFE2E2E2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
@@ -883,25 +805,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2A0D9763-A68F-4316-A902-9F3AF71E460E}" name="Table1" displayName="Table1" ref="A1:P10" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" tableBorderDxfId="16" headerRowCellStyle="Accent1">
-  <autoFilter ref="A1:P10" xr:uid="{2A0D9763-A68F-4316-A902-9F3AF71E460E}"/>
-  <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{0E170922-D87B-403B-9C5D-8FA792846449}" name="Client Name" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{5F738625-9A37-4120-A423-5601C6380E17}" name="Client Mode" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{1DB5B99A-4C96-4553-A42B-2775033D9944}" name="Ship Date" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{1E23500D-117A-4D0A-8362-5BCC03008055}" name="Commodity Class" dataDxfId="12"/>
-    <tableColumn id="10" xr3:uid="{5DFE15CC-618A-4288-B97F-7C211A167330}" name="Commodity Pieces" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{FCA141A9-E4FA-43DC-964B-0D5DD74E859B}" name="Commodity Paid Weigh" dataDxfId="10"/>
-    <tableColumn id="12" xr3:uid="{6993555B-0451-403C-A22E-62E5322721B6}" name="Shipper City" dataDxfId="9"/>
-    <tableColumn id="13" xr3:uid="{4C9370F1-7FCB-49D6-AB02-39C2F4C21544}" name="Shipper State" dataDxfId="8"/>
-    <tableColumn id="14" xr3:uid="{E7B999E5-FEA7-4739-BB19-F5C643741970}" name="Shipper Zip" dataDxfId="7"/>
-    <tableColumn id="15" xr3:uid="{C260B9DF-4E96-442D-AF4B-8E1D8E0168F9}" name="Latitude" dataDxfId="6"/>
-    <tableColumn id="16" xr3:uid="{3E93B25A-2852-4036-8481-200FBC0412F0}" name="Longitude" dataDxfId="5"/>
-    <tableColumn id="17" xr3:uid="{DEC63537-3DBB-4C76-828A-2ABEA3286861}" name="Consignee City" dataDxfId="4"/>
-    <tableColumn id="18" xr3:uid="{EF8A85BF-E58B-4799-A30A-1578AC12F6EE}" name="Consignee State" dataDxfId="3"/>
-    <tableColumn id="19" xr3:uid="{4D8E73BB-EC11-404E-B97B-7A1A440CD284}" name="Consignee Zip" dataDxfId="2"/>
-    <tableColumn id="20" xr3:uid="{A73E6615-9FC4-4051-A189-CD30583B2070}" name="Latitude2" dataDxfId="1"/>
-    <tableColumn id="21" xr3:uid="{5745D6C2-F2DE-4DD5-B797-0F844C55C1DA}" name="Longitude3" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2A0D9763-A68F-4316-A902-9F3AF71E460E}" name="Table1" displayName="Table1" ref="A1:L10" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" tableBorderDxfId="12" headerRowCellStyle="Accent1">
+  <autoFilter ref="A1:L10" xr:uid="{2A0D9763-A68F-4316-A902-9F3AF71E460E}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{0E170922-D87B-403B-9C5D-8FA792846449}" name="Client Name" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{5F738625-9A37-4120-A423-5601C6380E17}" name="Client Mode" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{1DB5B99A-4C96-4553-A42B-2775033D9944}" name="Ship Date" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{1E23500D-117A-4D0A-8362-5BCC03008055}" name="Commodity Class" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{5DFE15CC-618A-4288-B97F-7C211A167330}" name="Commodity Pieces" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{FCA141A9-E4FA-43DC-964B-0D5DD74E859B}" name="Commodity Paid Weight" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{6993555B-0451-403C-A22E-62E5322721B6}" name="Shipper City" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{4C9370F1-7FCB-49D6-AB02-39C2F4C21544}" name="Shipper State" dataDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{E7B999E5-FEA7-4739-BB19-F5C643741970}" name="Shipper Zip" dataDxfId="3"/>
+    <tableColumn id="17" xr3:uid="{DEC63537-3DBB-4C76-828A-2ABEA3286861}" name="Consignee City" dataDxfId="2"/>
+    <tableColumn id="18" xr3:uid="{EF8A85BF-E58B-4799-A30A-1578AC12F6EE}" name="Consignee State" dataDxfId="1"/>
+    <tableColumn id="19" xr3:uid="{4D8E73BB-EC11-404E-B97B-7A1A440CD284}" name="Consignee Zip" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1204,34 +1122,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D4B3E83-5C15-43A9-AD03-08E7C97D13B2}">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1246,268 +1161,372 @@
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="C2" s="11">
+        <v>44651</v>
+      </c>
+      <c r="D2" s="5">
+        <v>6</v>
+      </c>
+      <c r="E2" s="6">
+        <v>64</v>
+      </c>
+      <c r="F2" s="6">
+        <v>4575</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="4">
+        <v>90001</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="4">
+        <v>95101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="12">
+        <v>44656</v>
+      </c>
+      <c r="D3" s="8">
+        <v>8</v>
+      </c>
+      <c r="E3" s="9">
+        <v>1425</v>
+      </c>
+      <c r="F3" s="9">
+        <v>3542</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="7">
+        <v>10001</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="7">
+        <v>78701</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="11">
+        <v>45173</v>
+      </c>
+      <c r="D4" s="5">
+        <v>10</v>
+      </c>
+      <c r="E4" s="6">
+        <v>146</v>
+      </c>
+      <c r="F4" s="6">
+        <v>6489</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="4">
+        <v>60601</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="4">
+        <v>32201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="12">
+        <v>44803</v>
+      </c>
+      <c r="D5" s="8">
+        <v>22</v>
+      </c>
+      <c r="E5" s="9">
+        <v>425</v>
+      </c>
+      <c r="F5" s="9">
+        <v>2435</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="7">
+        <v>77001</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="7">
+        <v>94101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="11">
+        <v>45266</v>
+      </c>
+      <c r="D6" s="5">
+        <v>26</v>
+      </c>
+      <c r="E6" s="6">
+        <v>146</v>
+      </c>
+      <c r="F6" s="6">
+        <v>6985</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="4">
+        <v>85001</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" s="4">
+        <v>46201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="12">
+        <v>44819</v>
+      </c>
+      <c r="D7" s="8">
+        <v>23</v>
+      </c>
+      <c r="E7" s="9">
+        <v>3654</v>
+      </c>
+      <c r="F7" s="9">
+        <v>3642</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="5" t="s">
+      <c r="I7" s="7">
+        <v>19101</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" s="7">
+        <v>43201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="11">
+        <v>45086</v>
+      </c>
+      <c r="D8" s="5">
+        <v>658</v>
+      </c>
+      <c r="E8" s="6">
+        <v>7348</v>
+      </c>
+      <c r="F8" s="6">
+        <v>4785</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="4">
+        <v>78201</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="4">
+        <v>76101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="5" t="s">
-        <v>14</v>
+      <c r="C9" s="12">
+        <v>44725</v>
+      </c>
+      <c r="D9" s="8">
+        <v>365</v>
+      </c>
+      <c r="E9" s="9">
+        <v>4685</v>
+      </c>
+      <c r="F9" s="9">
+        <v>10258</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="7">
+        <v>92101</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L9" s="7">
+        <v>28201</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="16">
-        <v>44651</v>
-      </c>
-      <c r="D2" s="7">
-        <v>55</v>
-      </c>
-      <c r="E2" s="8">
-        <v>64</v>
-      </c>
-      <c r="F2" s="8">
-        <v>862</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="6">
-        <v>16001</v>
-      </c>
-      <c r="J2" s="9">
-        <v>40.440624</v>
-      </c>
-      <c r="K2" s="9">
-        <v>-79.995887999999994</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="6">
-        <v>12950</v>
-      </c>
-      <c r="O2" s="10">
-        <v>42.880229999999997</v>
-      </c>
-      <c r="P2" s="10">
-        <v>-78.878737999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="17">
-        <v>44656</v>
-      </c>
-      <c r="D3" s="12">
-        <v>55</v>
-      </c>
-      <c r="E3" s="13">
-        <v>64</v>
-      </c>
-      <c r="F3" s="13">
-        <v>695</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="11">
-        <v>85043</v>
-      </c>
-      <c r="J3" s="14">
-        <v>33.430402600000001</v>
-      </c>
-      <c r="K3" s="14">
-        <v>-112.2026347</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" s="11">
-        <v>82007</v>
-      </c>
-      <c r="O3" s="14">
-        <v>41.079198499999997</v>
-      </c>
-      <c r="P3" s="14">
-        <v>-104.798771</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-    </row>
-    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-    </row>
-    <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-    </row>
-    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-    </row>
-    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-    </row>
-    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="14">
+        <v>44689</v>
+      </c>
+      <c r="D10" s="15">
+        <v>66</v>
+      </c>
+      <c r="E10" s="16">
+        <v>1235</v>
+      </c>
+      <c r="F10" s="16">
+        <v>1069</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="10">
+        <v>78701</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="L10" s="10">
+        <v>98101</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F2:F10">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="greaterThan">
       <formula>44000</formula>
     </cfRule>
   </conditionalFormatting>
